--- a/inputs/ttes.xlsx
+++ b/inputs/ttes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4908E8-D135-4909-BC13-6A81706C18F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265087F-3618-4379-AC4F-7F0EB58E6963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3135.0000000000005</v>
+        <v>2350</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -494,7 +494,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.2)</f>
-        <v>2978.2500000000005</v>
+        <v>2232.5</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.4)</f>
-        <v>2821.5000000000005</v>
+        <v>2115</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.6)</f>
-        <v>2664.7500000000005</v>
+        <v>1997.5</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.8)</f>
-        <v>2508.0000000000005</v>
+        <v>1880</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="B2">
         <v>0.95</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*1)</f>
-        <v>2351.2500000000005</v>
+        <v>1762.5</v>
       </c>
       <c r="F2">
         <v>0.01</v>

--- a/inputs/ttes.xlsx
+++ b/inputs/ttes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265087F-3618-4379-AC4F-7F0EB58E6963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E0C28-04FB-4A66-9C6C-02585109F878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2350</v>
+        <v>2600</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -494,7 +494,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.2)</f>
-        <v>2232.5</v>
+        <v>2470</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -560,7 +560,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.4)</f>
-        <v>2115</v>
+        <v>2340</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -626,7 +626,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.6)</f>
-        <v>1997.5</v>
+        <v>2210</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.8)</f>
-        <v>1880</v>
+        <v>2080</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*1)</f>
-        <v>1762.5</v>
+        <v>1950</v>
       </c>
       <c r="F2">
         <v>0.01</v>

--- a/inputs/ttes.xlsx
+++ b/inputs/ttes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97E0C28-04FB-4A66-9C6C-02585109F878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C64189-8A8D-4C04-A176-84E4594EF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -428,16 +428,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>7.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -494,13 +494,13 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.2)</f>
-        <v>2470</v>
+        <v>2185</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>7.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -560,13 +560,13 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.4)</f>
-        <v>2340</v>
+        <v>2070</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>7.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -626,13 +626,13 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.6)</f>
-        <v>2210</v>
+        <v>1955</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>7.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -692,13 +692,13 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.8)</f>
-        <v>2080</v>
+        <v>1840</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>7.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -758,13 +758,13 @@
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*1)</f>
-        <v>1950</v>
+        <v>1725</v>
       </c>
       <c r="F2">
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>7.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="H2">
         <v>5.5</v>

--- a/inputs/ttes.xlsx
+++ b/inputs/ttes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C64189-8A8D-4C04-A176-84E4594EF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960F762-F276-4409-8B22-D65894B062CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>8.5787499999999994</v>
+        <v>7.8630000000000004</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -500,7 +500,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>8.5787499999999994</v>
+        <v>7.8630000000000004</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -566,7 +566,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>8.5787499999999994</v>
+        <v>7.8630000000000004</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -632,7 +632,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>8.5787499999999994</v>
+        <v>7.8630000000000004</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -698,7 +698,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>8.5787499999999994</v>
+        <v>7.8630000000000004</v>
       </c>
       <c r="H2">
         <v>5.5</v>
@@ -764,7 +764,7 @@
         <v>0.01</v>
       </c>
       <c r="G2">
-        <v>8.5787499999999994</v>
+        <v>7.8630000000000004</v>
       </c>
       <c r="H2">
         <v>5.5</v>

--- a/inputs/ttes.xlsx
+++ b/inputs/ttes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960F762-F276-4409-8B22-D65894B062CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D3BFA-4E5A-4947-B216-3F91BB6ECDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +569,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +635,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +701,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +767,7 @@
         <v>7.8630000000000004</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
